--- a/data/trans_dic/LAWTONB_2R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/LAWTONB_2R2-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.242436214680666</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4096575063151405</v>
+        <v>0.4096575063151404</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.4122477495678258</v>
@@ -685,7 +685,7 @@
         <v>0.4199504249642238</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.6243581762018248</v>
+        <v>0.6243581762018247</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3792306003927357</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2431088725643434</v>
+        <v>0.238676187551018</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2575393849441124</v>
+        <v>0.2691547113744587</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1877300028619378</v>
+        <v>0.1846264968704016</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3150079400950698</v>
+        <v>0.3117673471471855</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3589155878998475</v>
+        <v>0.3581527555612644</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4064992728289233</v>
+        <v>0.4134433886025302</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3583428946517199</v>
+        <v>0.3574658411351002</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5596841684908401</v>
+        <v>0.563806099896827</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3316361286035643</v>
+        <v>0.3316159744368345</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3761554232057083</v>
+        <v>0.3755145228771204</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3025153285938874</v>
+        <v>0.305503870958804</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5054088902380544</v>
+        <v>0.502843234223144</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3995527714327646</v>
+        <v>0.3958502421890435</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4199848500902072</v>
+        <v>0.4362912354883426</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3097994260083545</v>
+        <v>0.3091128927953681</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5058967087519558</v>
+        <v>0.5148416729592425</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4753228787398991</v>
+        <v>0.4764534514365087</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5486474773642624</v>
+        <v>0.5548721322549433</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4861143569837744</v>
+        <v>0.4873026661964467</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6792120545758495</v>
+        <v>0.6801641588833223</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4239096111857376</v>
+        <v>0.4304399589536539</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.483395882362942</v>
+        <v>0.4840872138071901</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3990890122808246</v>
+        <v>0.4009500057575082</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6101656345193683</v>
+        <v>0.6063174993627259</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.2022435154282898</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2791174981766948</v>
+        <v>0.2791174981766949</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2911177389499472</v>
@@ -821,7 +821,7 @@
         <v>0.3466112998429212</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4365181198586074</v>
+        <v>0.4365181198586076</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.303622716498504</v>
@@ -833,7 +833,7 @@
         <v>0.2838607948294197</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3739460460450977</v>
+        <v>0.3739460460450978</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2502128324557537</v>
+        <v>0.2513439746967441</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1787624311885038</v>
+        <v>0.1844386448514395</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1493360585900209</v>
+        <v>0.1453465851531678</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2284665251343612</v>
+        <v>0.2313176619651921</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2265142323635796</v>
+        <v>0.2322749190759671</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3223563240851229</v>
+        <v>0.3228358297399342</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2806730404274477</v>
+        <v>0.2826145698366032</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3922323038364096</v>
+        <v>0.3895405107413607</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2556608755157908</v>
+        <v>0.2585425406178405</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2827779675488793</v>
+        <v>0.2850220830679511</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2370047064987872</v>
+        <v>0.2385819224178346</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3397499988814648</v>
+        <v>0.3421030842102351</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3888035410220876</v>
+        <v>0.4009431257341204</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3223581429221528</v>
+        <v>0.3281485845388732</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2645805126623232</v>
+        <v>0.2561284441776133</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3325150659275565</v>
+        <v>0.3330489014604731</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.36225739570205</v>
+        <v>0.3528925255589284</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4494383611811721</v>
+        <v>0.4518593871489879</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4180420524440295</v>
+        <v>0.4199527310448337</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.479142688702541</v>
+        <v>0.476183506616708</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3532949239480186</v>
+        <v>0.3523791654705545</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3807755874799576</v>
+        <v>0.3753915159217025</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3291137134914895</v>
+        <v>0.3340861401484547</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4042172456008543</v>
+        <v>0.4077486182326164</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3572789972344755</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3704567970956581</v>
+        <v>0.370456797095658</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2281729834953991</v>
@@ -969,7 +969,7 @@
         <v>0.279555081490419</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2722111404908842</v>
+        <v>0.2722111404908843</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1133768099245199</v>
+        <v>0.1162151882015809</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.178540685510681</v>
+        <v>0.1844834604653952</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1316963999254601</v>
+        <v>0.1369161689105948</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1308730026506634</v>
+        <v>0.1322377276827393</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2192320893329777</v>
+        <v>0.2148037638207296</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2408087656356319</v>
+        <v>0.2367931744965717</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2758071625437165</v>
+        <v>0.2838980676958404</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3190862666637422</v>
+        <v>0.3272168002429683</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1789911077477256</v>
+        <v>0.1832400564041222</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2304725672055709</v>
+        <v>0.2301708653733235</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2280285839772311</v>
+        <v>0.2308261891112905</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2417301289872301</v>
+        <v>0.239276145315804</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2408818234647352</v>
+        <v>0.2414401854143505</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3238820321419216</v>
+        <v>0.3263557193811568</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.254749348784479</v>
+        <v>0.2575409644861263</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2151960428469617</v>
+        <v>0.2176733328997439</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3740939595295398</v>
+        <v>0.3737631921182533</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3765118792400183</v>
+        <v>0.3785384879417735</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4381414552192922</v>
+        <v>0.4472770630452587</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4143555218292583</v>
+        <v>0.4183908548180272</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2844743827348919</v>
+        <v>0.2812642232829262</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3297948513197057</v>
+        <v>0.3278930393095394</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3332340740809538</v>
+        <v>0.3350185066882589</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3063649554017049</v>
+        <v>0.3045178547480608</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.203343357562753</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2515639527951302</v>
+        <v>0.2515639527951301</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3060542553438273</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1421088340519943</v>
+        <v>0.1318635383654254</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1235903646987958</v>
+        <v>0.1289245084161905</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1335809370103639</v>
+        <v>0.1271548556235385</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2026375174758065</v>
+        <v>0.2033012347001861</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1671917830707052</v>
+        <v>0.1689760241059673</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2399101544769354</v>
+        <v>0.2179976738727114</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1545507826927563</v>
+        <v>0.1433478340594486</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.233594842996288</v>
+        <v>0.2292730699221726</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1796962885548366</v>
+        <v>0.1845074307620203</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2129555901366037</v>
+        <v>0.2048415972296064</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1614989144366328</v>
+        <v>0.158703268738195</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2321898681882652</v>
+        <v>0.2271795490839614</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3726565917558138</v>
+        <v>0.3729711420446103</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3340509344791684</v>
+        <v>0.3269272449717285</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3004623717877506</v>
+        <v>0.2924523517981619</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3067681633675001</v>
+        <v>0.3025781769477803</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4670459474186558</v>
+        <v>0.4789063595594403</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4523914116868227</v>
+        <v>0.4307673554871576</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3378372193984879</v>
+        <v>0.3267018250781331</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3255375480475369</v>
+        <v>0.3243320241283037</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3657001222553314</v>
+        <v>0.3674259698815621</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3553863715139924</v>
+        <v>0.3611728804387204</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2856298351456157</v>
+        <v>0.283479004716213</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2974428776463478</v>
+        <v>0.2959953092836198</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.3580790821089285</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.4121539665306245</v>
+        <v>0.4121539665306244</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3080734697382276</v>
@@ -1241,7 +1241,7 @@
         <v>0.2945663385365238</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3393948216443112</v>
+        <v>0.3393948216443113</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2268518388032622</v>
+        <v>0.2260683558385182</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2276592929202097</v>
+        <v>0.2287883763049058</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1804347330651051</v>
+        <v>0.1785471688419387</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2232930973684926</v>
+        <v>0.2241225971964851</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3049181114039805</v>
+        <v>0.3062345267986859</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3509082170606634</v>
+        <v>0.3493123798530119</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.319906246090115</v>
+        <v>0.323424187766749</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3885530962773138</v>
+        <v>0.386485558118693</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.278740113887557</v>
+        <v>0.2799613160555379</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3085377539964929</v>
+        <v>0.3105098056363142</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2683581481971947</v>
+        <v>0.2701969986443992</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3206743182560428</v>
+        <v>0.3210266242261733</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3011240960656396</v>
+        <v>0.3022260486221385</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3065839203731778</v>
+        <v>0.3100190179265895</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2450676024383951</v>
+        <v>0.241963821349909</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2794833188666135</v>
+        <v>0.2776410884186107</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3770619632604242</v>
+        <v>0.3787899404927893</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4216739376038535</v>
+        <v>0.4213708903235701</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3974459785708863</v>
+        <v>0.3964346974731873</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4374214684421138</v>
+        <v>0.4358771024668945</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3323969092301093</v>
+        <v>0.3369731005879492</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3637901342722571</v>
+        <v>0.3663140769439011</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.317463273860265</v>
+        <v>0.3227413397304884</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3594461339257886</v>
+        <v>0.3584519030504147</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>31359</v>
+        <v>30787</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>35420</v>
+        <v>37018</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>31248</v>
+        <v>30732</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>20717</v>
+        <v>20504</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>97701</v>
+        <v>97493</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>87655</v>
+        <v>89152</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>93305</v>
+        <v>93076</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>79163</v>
+        <v>79746</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>133053</v>
+        <v>133045</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>132846</v>
+        <v>132619</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>129123</v>
+        <v>130399</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>104727</v>
+        <v>104195</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>51539</v>
+        <v>51061</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>57762</v>
+        <v>60004</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>51567</v>
+        <v>51453</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>33272</v>
+        <v>33860</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>129389</v>
+        <v>129696</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>118307</v>
+        <v>119649</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>126573</v>
+        <v>126883</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>96070</v>
+        <v>96204</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>170074</v>
+        <v>172694</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>170719</v>
+        <v>170964</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>170344</v>
+        <v>171138</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>126434</v>
+        <v>125636</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>40673</v>
+        <v>40857</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>30831</v>
+        <v>31810</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>25352</v>
+        <v>24674</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>45492</v>
+        <v>46060</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>46118</v>
+        <v>47290</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>79644</v>
+        <v>79762</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>61974</v>
+        <v>62403</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>118363</v>
+        <v>117551</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>93611</v>
+        <v>94666</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>118636</v>
+        <v>119577</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>92566</v>
+        <v>93182</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>170177</v>
+        <v>171355</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>63202</v>
+        <v>65175</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>55597</v>
+        <v>56596</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>44916</v>
+        <v>43481</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>66210</v>
+        <v>66317</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>73755</v>
+        <v>71848</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>111041</v>
+        <v>111640</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>92306</v>
+        <v>92728</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>144590</v>
+        <v>143697</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>129360</v>
+        <v>129025</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>159749</v>
+        <v>157490</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>128541</v>
+        <v>130483</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>202468</v>
+        <v>204236</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16430</v>
+        <v>16841</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>29680</v>
+        <v>30668</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>20514</v>
+        <v>21328</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>30011</v>
+        <v>30324</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>32023</v>
+        <v>31376</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>46252</v>
+        <v>45481</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>50778</v>
+        <v>52267</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>75144</v>
+        <v>77059</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>52084</v>
+        <v>53320</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>82580</v>
+        <v>82472</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>77502</v>
+        <v>78453</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>112359</v>
+        <v>111218</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>34908</v>
+        <v>34989</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>53841</v>
+        <v>54252</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>39683</v>
+        <v>40117</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>49347</v>
+        <v>49916</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>54643</v>
+        <v>54594</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>72317</v>
+        <v>72706</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>80664</v>
+        <v>82346</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>97579</v>
+        <v>98530</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>82777</v>
+        <v>81843</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>118167</v>
+        <v>117486</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>113259</v>
+        <v>113865</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>142402</v>
+        <v>141543</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7012</v>
+        <v>6506</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9652</v>
+        <v>10069</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11748</v>
+        <v>11183</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>42626</v>
+        <v>42765</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6560</v>
+        <v>6630</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>20404</v>
+        <v>18541</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>16465</v>
+        <v>15272</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>48214</v>
+        <v>47322</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>15917</v>
+        <v>16343</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>34743</v>
+        <v>33419</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>31408</v>
+        <v>30865</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>96766</v>
+        <v>94678</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18388</v>
+        <v>18403</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26088</v>
+        <v>25532</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>26424</v>
+        <v>25720</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>64530</v>
+        <v>63649</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18325</v>
+        <v>18790</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>38476</v>
+        <v>36637</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>35992</v>
+        <v>34806</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>67191</v>
+        <v>66942</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>32392</v>
+        <v>32545</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>57980</v>
+        <v>58924</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>55550</v>
+        <v>55131</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>123960</v>
+        <v>123357</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>110206</v>
+        <v>109825</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>126199</v>
+        <v>126825</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>104640</v>
+        <v>103546</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>157323</v>
+        <v>157907</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>201585</v>
+        <v>202455</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>259609</v>
+        <v>258429</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>246911</v>
+        <v>249627</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>343911</v>
+        <v>342081</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>319691</v>
+        <v>321092</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>399296</v>
+        <v>401848</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>362755</v>
+        <v>365241</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>509764</v>
+        <v>510324</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>146287</v>
+        <v>146823</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>169950</v>
+        <v>171854</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>142123</v>
+        <v>140323</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>196912</v>
+        <v>195614</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>249280</v>
+        <v>250423</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>311963</v>
+        <v>311739</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>306758</v>
+        <v>305978</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>387165</v>
+        <v>385798</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>381231</v>
+        <v>386480</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>470801</v>
+        <v>474067</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>429134</v>
+        <v>436268</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>571399</v>
+        <v>569818</v>
       </c>
     </row>
     <row r="24">
